--- a/KTCData.xlsx
+++ b/KTCData.xlsx
@@ -439,7 +439,7 @@
         <v>Tier 1</v>
       </c>
       <c r="F2" t="str">
-        <v>6063</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         <v>Tier 2</v>
       </c>
       <c r="F3" t="str">
-        <v>5325</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         <v>Tier 3</v>
       </c>
       <c r="F4" t="str">
-        <v>5023</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>Tier 3</v>
       </c>
       <c r="F5" t="str">
-        <v>4977</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="6">
@@ -519,7 +519,7 @@
         <v>Tier 3</v>
       </c>
       <c r="F6" t="str">
-        <v>4850</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         <v>Tier 3</v>
       </c>
       <c r="F7" t="str">
-        <v>4805</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>Tier 3</v>
       </c>
       <c r="F8" t="str">
-        <v>4695</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>Tier 4</v>
       </c>
       <c r="F9" t="str">
-        <v>4346</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="10">
@@ -599,7 +599,7 @@
         <v>Tier 4</v>
       </c>
       <c r="F10" t="str">
-        <v>4253</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="11">
@@ -619,7 +619,7 @@
         <v>Tier 4</v>
       </c>
       <c r="F11" t="str">
-        <v>4016</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="12">
@@ -639,7 +639,7 @@
         <v>Tier 4</v>
       </c>
       <c r="F12" t="str">
-        <v>3896</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="13">
@@ -659,7 +659,7 @@
         <v>Tier 4</v>
       </c>
       <c r="F13" t="str">
-        <v>3706</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="14">
@@ -676,10 +676,10 @@
         <v>BUF</v>
       </c>
       <c r="E14" t="str">
-        <v>Tier 4</v>
+        <v>Tier 5</v>
       </c>
       <c r="F14" t="str">
-        <v>3549</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="15">
@@ -696,15 +696,15 @@
         <v>TEN</v>
       </c>
       <c r="E15" t="str">
-        <v>Tier 5</v>
+        <v>Tier 6</v>
       </c>
       <c r="F15" t="str">
-        <v>3119</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Rachaad White</v>
+        <v>Dameon Pierce</v>
       </c>
       <c r="B16" t="str">
         <v>15</v>
@@ -713,18 +713,18 @@
         <v>RB</v>
       </c>
       <c r="D16" t="str">
-        <v>TBB</v>
+        <v>HOU</v>
       </c>
       <c r="E16" t="str">
-        <v>Tier 5</v>
+        <v>Tier 6</v>
       </c>
       <c r="F16" t="str">
-        <v>3044</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Dameon Pierce</v>
+        <v>Rachaad White</v>
       </c>
       <c r="B17" t="str">
         <v>16</v>
@@ -733,33 +733,33 @@
         <v>RB</v>
       </c>
       <c r="D17" t="str">
-        <v>HOU</v>
+        <v>TBB</v>
       </c>
       <c r="E17" t="str">
-        <v>Tier 5</v>
+        <v>Tier 6</v>
       </c>
       <c r="F17" t="str">
-        <v>3009</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>David Bell</v>
+        <v>Desmond Ridder</v>
       </c>
       <c r="B18" t="str">
         <v>17</v>
       </c>
       <c r="C18" t="str">
-        <v>WR</v>
+        <v>QB</v>
       </c>
       <c r="D18" t="str">
-        <v>CLE</v>
+        <v>ATL</v>
       </c>
       <c r="E18" t="str">
-        <v>Tier 6</v>
+        <v>Tier 7</v>
       </c>
       <c r="F18" t="str">
-        <v>2847</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="19">
@@ -776,30 +776,30 @@
         <v>LAC</v>
       </c>
       <c r="E19" t="str">
-        <v>Tier 6</v>
+        <v>Tier 7</v>
       </c>
       <c r="F19" t="str">
-        <v>2838</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Desmond Ridder</v>
+        <v>David Bell</v>
       </c>
       <c r="B20" t="str">
         <v>19</v>
       </c>
       <c r="C20" t="str">
-        <v>QB</v>
+        <v>WR</v>
       </c>
       <c r="D20" t="str">
-        <v>ATL</v>
+        <v>CLE</v>
       </c>
       <c r="E20" t="str">
-        <v>Tier 6</v>
+        <v>Tier 7</v>
       </c>
       <c r="F20" t="str">
-        <v>2820</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="21">
@@ -816,10 +816,10 @@
         <v>HOU</v>
       </c>
       <c r="E21" t="str">
-        <v>Tier 6</v>
+        <v>Tier 8</v>
       </c>
       <c r="F21" t="str">
-        <v>2736</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="22">
@@ -836,10 +836,10 @@
         <v>ARI</v>
       </c>
       <c r="E22" t="str">
-        <v>Tier 6</v>
+        <v>Tier 8</v>
       </c>
       <c r="F22" t="str">
-        <v>2690</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="23">
@@ -856,10 +856,10 @@
         <v>IND</v>
       </c>
       <c r="E23" t="str">
-        <v>Tier 7</v>
+        <v>Tier 9</v>
       </c>
       <c r="F23" t="str">
-        <v>2566</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="24">
@@ -876,10 +876,10 @@
         <v>CAR</v>
       </c>
       <c r="E24" t="str">
-        <v>Tier 7</v>
+        <v>Tier 9</v>
       </c>
       <c r="F24" t="str">
-        <v>2483</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="25">
@@ -896,10 +896,10 @@
         <v>ATL</v>
       </c>
       <c r="E25" t="str">
-        <v>Tier 7</v>
+        <v>Tier 9</v>
       </c>
       <c r="F25" t="str">
-        <v>2469</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="26">
@@ -916,10 +916,10 @@
         <v>NYG</v>
       </c>
       <c r="E26" t="str">
-        <v>Tier 7</v>
+        <v>Tier 9</v>
       </c>
       <c r="F26" t="str">
-        <v>2459</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="27">
@@ -936,50 +936,50 @@
         <v>LVR</v>
       </c>
       <c r="E27" t="str">
-        <v>Tier 7</v>
+        <v>Tier 9</v>
       </c>
       <c r="F27" t="str">
-        <v>2396</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Brian Robinson</v>
+        <v>Jalen Tolbert</v>
       </c>
       <c r="B28" t="str">
         <v>27</v>
       </c>
       <c r="C28" t="str">
-        <v>RB</v>
+        <v>WR</v>
       </c>
       <c r="D28" t="str">
-        <v>WAS</v>
+        <v>DAL</v>
       </c>
       <c r="E28" t="str">
-        <v>Tier 7</v>
+        <v>Tier 9</v>
       </c>
       <c r="F28" t="str">
-        <v>2285</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Jalen Tolbert</v>
+        <v>Brian Robinson</v>
       </c>
       <c r="B29" t="str">
         <v>28</v>
       </c>
       <c r="C29" t="str">
-        <v>WR</v>
+        <v>RB</v>
       </c>
       <c r="D29" t="str">
-        <v>DAL</v>
+        <v>WAS</v>
       </c>
       <c r="E29" t="str">
-        <v>Tier 7</v>
+        <v>Tier 9</v>
       </c>
       <c r="F29" t="str">
-        <v>2208</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="30">
@@ -996,10 +996,10 @@
         <v>SFO</v>
       </c>
       <c r="E30" t="str">
-        <v>Tier 8</v>
+        <v>Tier 10</v>
       </c>
       <c r="F30" t="str">
-        <v>1945</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31">
@@ -1016,50 +1016,50 @@
         <v>WAS</v>
       </c>
       <c r="E31" t="str">
-        <v>Tier 8</v>
+        <v>Tier 11</v>
       </c>
       <c r="F31" t="str">
-        <v>1792</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Jelani Woods</v>
+        <v>Khalil Shakir</v>
       </c>
       <c r="B32" t="str">
         <v>31</v>
       </c>
       <c r="C32" t="str">
-        <v>TE</v>
+        <v>WR</v>
       </c>
       <c r="D32" t="str">
-        <v>IND</v>
+        <v>BUF</v>
       </c>
       <c r="E32" t="str">
-        <v>Tier 8</v>
+        <v>Tier 12</v>
       </c>
       <c r="F32" t="str">
-        <v>1680</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Khalil Shakir</v>
+        <v>Jelani Woods</v>
       </c>
       <c r="B33" t="str">
         <v>32</v>
       </c>
       <c r="C33" t="str">
-        <v>WR</v>
+        <v>TE</v>
       </c>
       <c r="D33" t="str">
-        <v>BUF</v>
+        <v>IND</v>
       </c>
       <c r="E33" t="str">
-        <v>Tier 8</v>
+        <v>Tier 12</v>
       </c>
       <c r="F33" t="str">
-        <v>1646</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="34">
@@ -1076,10 +1076,10 @@
         <v>NEP</v>
       </c>
       <c r="E34" t="str">
-        <v>Tier 8</v>
+        <v>Tier 12</v>
       </c>
       <c r="F34" t="str">
-        <v>1578</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="35">
@@ -1096,10 +1096,10 @@
         <v>KCC</v>
       </c>
       <c r="E35" t="str">
-        <v>Tier 9</v>
+        <v>Tier 13</v>
       </c>
       <c r="F35" t="str">
-        <v>1411</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="36">
@@ -1116,10 +1116,10 @@
         <v>NEP</v>
       </c>
       <c r="E36" t="str">
-        <v>Tier 9</v>
+        <v>Tier 13</v>
       </c>
       <c r="F36" t="str">
-        <v>1382</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="37">
@@ -1136,10 +1136,10 @@
         <v>DEN</v>
       </c>
       <c r="E37" t="str">
-        <v>Tier 9</v>
+        <v>Tier 13</v>
       </c>
       <c r="F37" t="str">
-        <v>1321</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="38">
@@ -1156,15 +1156,15 @@
         <v>LAR</v>
       </c>
       <c r="E38" t="str">
-        <v>Tier 9</v>
+        <v>Tier 13</v>
       </c>
       <c r="F38" t="str">
-        <v>1299</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Calvin Austin III</v>
+        <v>Velus Jones</v>
       </c>
       <c r="B39" t="str">
         <v>38</v>
@@ -1173,18 +1173,18 @@
         <v>WR</v>
       </c>
       <c r="D39" t="str">
-        <v>PIT</v>
+        <v>CHI</v>
       </c>
       <c r="E39" t="str">
-        <v>Tier 9</v>
+        <v>Tier 13</v>
       </c>
       <c r="F39" t="str">
-        <v>1266</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Velus Jones</v>
+        <v>Calvin Austin III</v>
       </c>
       <c r="B40" t="str">
         <v>39</v>
@@ -1193,13 +1193,13 @@
         <v>WR</v>
       </c>
       <c r="D40" t="str">
-        <v>CHI</v>
+        <v>PIT</v>
       </c>
       <c r="E40" t="str">
-        <v>Tier 9</v>
+        <v>Tier 13</v>
       </c>
       <c r="F40" t="str">
-        <v>1257</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="41">
@@ -1216,70 +1216,70 @@
         <v>TEN</v>
       </c>
       <c r="E41" t="str">
-        <v>Tier 10</v>
+        <v>Tier 14</v>
       </c>
       <c r="F41" t="str">
-        <v>996</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Carson Strong</v>
+        <v>Tyler Badie</v>
       </c>
       <c r="B42" t="str">
         <v>41</v>
       </c>
       <c r="C42" t="str">
-        <v>QB</v>
+        <v>RB</v>
       </c>
       <c r="D42" t="str">
-        <v>PHI</v>
+        <v>BAL</v>
       </c>
       <c r="E42" t="str">
-        <v>Tier 10</v>
+        <v>Tier 14</v>
       </c>
       <c r="F42" t="str">
-        <v>996</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Tyler Badie</v>
+        <v>Romeo Doubs</v>
       </c>
       <c r="B43" t="str">
         <v>42</v>
       </c>
       <c r="C43" t="str">
-        <v>RB</v>
+        <v>WR</v>
       </c>
       <c r="D43" t="str">
-        <v>BAL</v>
+        <v>GBP</v>
       </c>
       <c r="E43" t="str">
-        <v>Tier 10</v>
+        <v>Tier 14</v>
       </c>
       <c r="F43" t="str">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Romeo Doubs</v>
+        <v>Carson Strong</v>
       </c>
       <c r="B44" t="str">
         <v>43</v>
       </c>
       <c r="C44" t="str">
-        <v>WR</v>
+        <v>QB</v>
       </c>
       <c r="D44" t="str">
-        <v>GBP</v>
+        <v>PHI</v>
       </c>
       <c r="E44" t="str">
-        <v>Tier 10</v>
+        <v>Tier 14</v>
       </c>
       <c r="F44" t="str">
-        <v>973</v>
+        <v>960</v>
       </c>
     </row>
     <row r="45">
@@ -1296,10 +1296,10 @@
         <v>CLE</v>
       </c>
       <c r="E45" t="str">
-        <v>Tier 10</v>
+        <v>Tier 14</v>
       </c>
       <c r="F45" t="str">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="46">
@@ -1316,10 +1316,10 @@
         <v>NYJ</v>
       </c>
       <c r="E46" t="str">
-        <v>Tier 11</v>
+        <v>Tier 14</v>
       </c>
       <c r="F46" t="str">
-        <v>861</v>
+        <v>902</v>
       </c>
     </row>
     <row r="47">
@@ -1336,50 +1336,50 @@
         <v>ARI</v>
       </c>
       <c r="E47" t="str">
-        <v>Tier 12</v>
+        <v>Tier 14</v>
       </c>
       <c r="F47" t="str">
-        <v>810</v>
+        <v>888</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Danny Gray</v>
+        <v>Isaih Pacheco</v>
       </c>
       <c r="B48" t="str">
         <v>47</v>
       </c>
       <c r="C48" t="str">
-        <v>WR</v>
+        <v>RB</v>
       </c>
       <c r="D48" t="str">
-        <v>SFO</v>
+        <v>KCC</v>
       </c>
       <c r="E48" t="str">
-        <v>Tier 12</v>
+        <v>Tier 15</v>
       </c>
       <c r="F48" t="str">
-        <v>775</v>
+        <v>829</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Isaih Pacheco</v>
+        <v>Danny Gray</v>
       </c>
       <c r="B49" t="str">
         <v>48</v>
       </c>
       <c r="C49" t="str">
-        <v>RB</v>
+        <v>WR</v>
       </c>
       <c r="D49" t="str">
-        <v>KCC</v>
+        <v>SFO</v>
       </c>
       <c r="E49" t="str">
-        <v>Tier 12</v>
+        <v>Tier 15</v>
       </c>
       <c r="F49" t="str">
-        <v>743</v>
+        <v>797</v>
       </c>
     </row>
     <row r="50">
@@ -1396,10 +1396,10 @@
         <v>BAL</v>
       </c>
       <c r="E50" t="str">
-        <v>Tier 12</v>
+        <v>Tier 16</v>
       </c>
       <c r="F50" t="str">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="51">
@@ -1416,10 +1416,10 @@
         <v>NEP</v>
       </c>
       <c r="E51" t="str">
-        <v>Tier 12</v>
+        <v>Tier 16</v>
       </c>
       <c r="F51" t="str">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52">
@@ -1436,10 +1436,10 @@
         <v>TBB</v>
       </c>
       <c r="E52" t="str">
-        <v>Tier 12</v>
+        <v>Tier 16</v>
       </c>
       <c r="F52" t="str">
-        <v>652</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53">
@@ -1456,10 +1456,10 @@
         <v>NEP</v>
       </c>
       <c r="E53" t="str">
-        <v>Tier 13</v>
+        <v>Tier 17</v>
       </c>
       <c r="F53" t="str">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54">
@@ -1476,10 +1476,10 @@
         <v>BUF</v>
       </c>
       <c r="E54" t="str">
-        <v>Tier 13</v>
+        <v>Tier 17</v>
       </c>
       <c r="F54" t="str">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55">
@@ -1496,15 +1496,15 @@
         <v>PHI</v>
       </c>
       <c r="E55" t="str">
-        <v>Tier 14</v>
+        <v>Tier 18</v>
       </c>
       <c r="F55" t="str">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Zonovan Knight</v>
+        <v>Jerrion Ealy</v>
       </c>
       <c r="B56" t="str">
         <v>55</v>
@@ -1513,18 +1513,18 @@
         <v>RB</v>
       </c>
       <c r="D56" t="str">
-        <v>NYJ</v>
+        <v>KCC</v>
       </c>
       <c r="E56" t="str">
-        <v>Tier 14</v>
+        <v>Tier 18</v>
       </c>
       <c r="F56" t="str">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Jerrion Ealy</v>
+        <v>Snoop Conner</v>
       </c>
       <c r="B57" t="str">
         <v>56</v>
@@ -1533,18 +1533,18 @@
         <v>RB</v>
       </c>
       <c r="D57" t="str">
-        <v>KCC</v>
+        <v>JAC</v>
       </c>
       <c r="E57" t="str">
-        <v>Tier 14</v>
+        <v>Tier 18</v>
       </c>
       <c r="F57" t="str">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Snoop Conner</v>
+        <v>Zonovan Knight</v>
       </c>
       <c r="B58" t="str">
         <v>57</v>
@@ -1553,13 +1553,13 @@
         <v>RB</v>
       </c>
       <c r="D58" t="str">
-        <v>JAC</v>
+        <v>NYJ</v>
       </c>
       <c r="E58" t="str">
-        <v>Tier 14</v>
+        <v>Tier 18</v>
       </c>
       <c r="F58" t="str">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59">
@@ -1576,50 +1576,50 @@
         <v>LVR</v>
       </c>
       <c r="E59" t="str">
-        <v>Tier 14</v>
+        <v>Tier 19</v>
       </c>
       <c r="F59" t="str">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Abram Smith</v>
+        <v>Kevin Austin</v>
       </c>
       <c r="B60" t="str">
         <v>59</v>
       </c>
       <c r="C60" t="str">
-        <v>RB</v>
+        <v>WR</v>
       </c>
       <c r="D60" t="str">
-        <v>NOS</v>
+        <v>JAC</v>
       </c>
       <c r="E60" t="str">
-        <v>Tier 14</v>
+        <v>Tier 19</v>
       </c>
       <c r="F60" t="str">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Kevin Austin</v>
+        <v>Abram Smith</v>
       </c>
       <c r="B61" t="str">
         <v>60</v>
       </c>
       <c r="C61" t="str">
-        <v>WR</v>
+        <v>RB</v>
       </c>
       <c r="D61" t="str">
-        <v>JAC</v>
+        <v>NOS</v>
       </c>
       <c r="E61" t="str">
-        <v>Tier 14</v>
+        <v>Tier 19</v>
       </c>
       <c r="F61" t="str">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62">
@@ -1636,55 +1636,55 @@
         <v>SFO</v>
       </c>
       <c r="E62" t="str">
-        <v>Tier 15</v>
+        <v>Tier 20</v>
       </c>
       <c r="F62" t="str">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Erik Ezukanma</v>
+        <v>CJ Verdell</v>
       </c>
       <c r="B63" t="str">
         <v>62</v>
       </c>
       <c r="C63" t="str">
-        <v>WR</v>
+        <v>RB</v>
       </c>
       <c r="D63" t="str">
-        <v>MIA</v>
+        <v>IND</v>
       </c>
       <c r="E63" t="str">
-        <v>Tier 15</v>
+        <v>Tier 20</v>
       </c>
       <c r="F63" t="str">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Max Borghi</v>
+        <v>Erik Ezukanma</v>
       </c>
       <c r="B64" t="str">
         <v>63</v>
       </c>
       <c r="C64" t="str">
-        <v>RB</v>
+        <v>WR</v>
       </c>
       <c r="D64" t="str">
-        <v>IND</v>
+        <v>MIA</v>
       </c>
       <c r="E64" t="str">
-        <v>Tier 15</v>
+        <v>Tier 20</v>
       </c>
       <c r="F64" t="str">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>CJ Verdell</v>
+        <v>Max Borghi</v>
       </c>
       <c r="B65" t="str">
         <v>64</v>
@@ -1696,10 +1696,10 @@
         <v>IND</v>
       </c>
       <c r="E65" t="str">
-        <v>Tier 15</v>
+        <v>Tier 20</v>
       </c>
       <c r="F65" t="str">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -1716,10 +1716,10 @@
         <v>DAL</v>
       </c>
       <c r="E66" t="str">
-        <v>Tier 16</v>
+        <v>Tier 20</v>
       </c>
       <c r="F66" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
